--- a/cluster/data test/dist-change-homer-ampar-ctr-1.xlsx
+++ b/cluster/data test/dist-change-homer-ampar-ctr-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athomaz\Google Drive\superresolution\analysis\mycodes\superres-matlab\cluster\data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Andre\Data\2017\LTD\20171103\control1\analysis\Cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="13395" xr2:uid="{258BA527-CEF7-4F84-B0EC-B0E0D76CB50B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="13395" xr2:uid="{49E3BF44-FC29-4F0B-9D26-12E041ADE191}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,1445 +369,1982 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EBF6D0-C294-4C03-A3A6-01A7176CE11D}">
-  <dimension ref="A1:B179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016306C4-D63C-4872-86F7-FC64ACBF86A9}">
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B179"/>
+      <selection sqref="A1:C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>178.40987911124466</v>
       </c>
       <c r="B1">
-        <v>1043.4518783866349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166.98679864468343</v>
+      </c>
+      <c r="C1">
+        <v>289.22588165575559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>247.24488252631639</v>
       </c>
       <c r="B2">
-        <v>145.32372269055799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275.00066659005262</v>
+      </c>
+      <c r="C2">
+        <v>232.00672519387933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>163.99676163106594</v>
       </c>
       <c r="B3">
-        <v>344.91322149838055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351.83707329501243</v>
+      </c>
+      <c r="C3">
+        <v>238.89339128105638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>362.66517695143824</v>
       </c>
       <c r="B4">
-        <v>542.79819072505165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380.363679830943</v>
+      </c>
+      <c r="C4">
+        <v>225.70381833446066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>446.36641472613229</v>
       </c>
       <c r="B5">
-        <v>146.25142867840455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>274.87713099109408</v>
+      </c>
+      <c r="C5">
+        <v>491.38962631684984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2037.436266660731</v>
       </c>
       <c r="B6">
-        <v>169.92379438351824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>349.4189560125929</v>
+      </c>
+      <c r="C6">
+        <v>2385.1935265208454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>283.45862616403855</v>
       </c>
       <c r="B7">
-        <v>146.33131619982046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492.99376557096474</v>
+      </c>
+      <c r="C7">
+        <v>372.36851392949177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1470.4015391196863</v>
       </c>
       <c r="B8">
-        <v>157.64695492215404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1366.2592210661035</v>
+      </c>
+      <c r="C8">
+        <v>199.00071482781883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>385.6955886896406</v>
       </c>
       <c r="B9">
-        <v>412.18530657941278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488.78285135055773</v>
+      </c>
+      <c r="C9">
+        <v>303.56398237426561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>324.92679173102596</v>
       </c>
       <c r="B10">
-        <v>549.52735547322766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388.79193604333398</v>
+      </c>
+      <c r="C10">
+        <v>146.3539184570314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>377.24787148626382</v>
       </c>
       <c r="B11">
-        <v>91.710984458503944</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524.75974551328932</v>
+      </c>
+      <c r="C11">
+        <v>232.72495139005397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>414.20230283403589</v>
       </c>
       <c r="B12">
-        <v>539.92475694092934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427.38351542938028</v>
+      </c>
+      <c r="C12">
+        <v>152.59635289907055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>247.00644937369523</v>
       </c>
       <c r="B13">
-        <v>215.16164683538079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>268.93155254512243</v>
+      </c>
+      <c r="C13">
+        <v>203.39764395538137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>238.74668891457151</v>
       </c>
       <c r="B14">
-        <v>267.3942835847148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382.18921354104839</v>
+      </c>
+      <c r="C14">
+        <v>300.06855096457735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80.030717788045877</v>
       </c>
       <c r="B15">
-        <v>124.66394082328236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190.59259288619876</v>
+      </c>
+      <c r="C15">
+        <v>125.28755334342056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2576.8267054833764</v>
       </c>
       <c r="B16">
-        <v>1367.029479411467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2584.7313260400583</v>
+      </c>
+      <c r="C16">
+        <v>194.74613628979159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>911.96474632557465</v>
       </c>
       <c r="B17">
-        <v>1567.9066233790784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1669.781783844544</v>
+      </c>
+      <c r="C17">
+        <v>1416.820849983194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>878.83222364066785</v>
       </c>
       <c r="B18">
-        <v>971.9647579927846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>964.98404767579621</v>
+      </c>
+      <c r="C18">
+        <v>157.62733090150286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>259.70710698942156</v>
       </c>
       <c r="B19">
-        <v>146.37771816634802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233.90911998445875</v>
+      </c>
+      <c r="C19">
+        <v>133.26729652184775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>404.3697115722515</v>
       </c>
       <c r="B20">
-        <v>362.76035832855268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>449.93788300416497</v>
+      </c>
+      <c r="C20">
+        <v>137.99086360203199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>129.78198964964298</v>
       </c>
       <c r="B21">
-        <v>640.39947924520618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203.88691205426284</v>
+      </c>
+      <c r="C21">
+        <v>222.94584273000942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1919.8829704200414</v>
       </c>
       <c r="B22">
-        <v>1850.1364413343117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1899.321762715467</v>
+      </c>
+      <c r="C22">
+        <v>111.19989949116759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1011.2245973690337</v>
       </c>
       <c r="B23">
-        <v>1265.3174115507179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1043.0584287875861</v>
+      </c>
+      <c r="C23">
+        <v>91.395991856180984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>431.7486517061846</v>
       </c>
       <c r="B24">
-        <v>577.84838143818683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>670.31147915332463</v>
+      </c>
+      <c r="C24">
+        <v>269.58417775322317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>96.164157541311809</v>
       </c>
       <c r="B25">
-        <v>127.60916810031975</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187.06803095664071</v>
+      </c>
+      <c r="C25">
+        <v>114.44689356778203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>339.20203681483355</v>
       </c>
       <c r="B26">
-        <v>771.95998800924792</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>597.83738872766912</v>
+      </c>
+      <c r="C26">
+        <v>764.81231847575918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>322.58593617941585</v>
       </c>
       <c r="B27">
-        <v>175.17072749200113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263.73307985543414</v>
+      </c>
+      <c r="C27">
+        <v>158.09248322841987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>231.9726681894129</v>
       </c>
       <c r="B28">
-        <v>183.17124919401815</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317.91030899985509</v>
+      </c>
+      <c r="C28">
+        <v>94.688794093873426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>311.07792140617806</v>
       </c>
       <c r="B29">
-        <v>264.29592516831127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>298.63873389107545</v>
+      </c>
+      <c r="C29">
+        <v>157.20519307750277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>426.70921203544322</v>
       </c>
       <c r="B30">
-        <v>718.59630090650899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528.45309892675982</v>
+      </c>
+      <c r="C30">
+        <v>130.30994115388646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>354.35118076755907</v>
       </c>
       <c r="B31">
-        <v>186.25786834737062</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453.2227637724655</v>
+      </c>
+      <c r="C31">
+        <v>109.29806558388019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>146.19897676827605</v>
       </c>
       <c r="B32">
-        <v>182.25249390534088</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240.8759966398305</v>
+      </c>
+      <c r="C32">
+        <v>213.95984042509698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1003.2775914933728</v>
       </c>
       <c r="B33">
-        <v>282.80910813772556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>686.76120820843437</v>
+      </c>
+      <c r="C33">
+        <v>511.58832984908446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>75.732000219435321</v>
       </c>
       <c r="B34">
-        <v>124.20837739312213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>271.20288279428854</v>
+      </c>
+      <c r="C34">
+        <v>242.79621665410556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1484.3622754420408</v>
       </c>
       <c r="B35">
-        <v>245.32286878355185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1661.9457460009214</v>
+      </c>
+      <c r="C35">
+        <v>264.44987768220847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1735.3235866567461</v>
       </c>
       <c r="B36">
-        <v>289.74750283796845</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1782.5451948009388</v>
+      </c>
+      <c r="C36">
+        <v>71.631860659889725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>343.02540168529606</v>
       </c>
       <c r="B37">
-        <v>265.83728052502369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>298.08087293337167</v>
+      </c>
+      <c r="C37">
+        <v>197.14966915345963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2035.0986612758459</v>
       </c>
       <c r="B38">
-        <v>201.10338974897221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1891.2033691755123</v>
+      </c>
+      <c r="C38">
+        <v>205.92993279403919</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>394.50419884158254</v>
       </c>
       <c r="B39">
-        <v>154.82309967181783</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173.53163564803617</v>
+      </c>
+      <c r="C39">
+        <v>374.23384001686605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1186.4778457566581</v>
       </c>
       <c r="B40">
-        <v>141.26743238868016</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1187.7539275887352</v>
+      </c>
+      <c r="C40">
+        <v>104.46902387616673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1208.1467902544762</v>
       </c>
       <c r="B41">
-        <v>1286.3275241724616</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1209.7205335111437</v>
+      </c>
+      <c r="C41">
+        <v>153.45583715420557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>393.12913320622056</v>
       </c>
       <c r="B42">
-        <v>216.8355134366376</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>658.25343127801227</v>
+      </c>
+      <c r="C42">
+        <v>313.98485030069935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>636.01312326480979</v>
       </c>
       <c r="B43">
-        <v>909.71687867408616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>812.48373796503188</v>
+      </c>
+      <c r="C43">
+        <v>212.76528340755542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>467.6558823614705</v>
       </c>
       <c r="B44">
-        <v>207.06270452248847</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>225.11163270588298</v>
+      </c>
+      <c r="C44">
+        <v>1991.5809689345765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1248.1376207138901</v>
       </c>
       <c r="B45">
-        <v>1425.2447849577909</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1289.6051810877818</v>
+      </c>
+      <c r="C45">
+        <v>110.38976588588663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>247.81361056985284</v>
       </c>
       <c r="B46">
-        <v>224.94022602780746</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>292.47177248884873</v>
+      </c>
+      <c r="C46">
+        <v>140.83667822898005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>243.66138192990076</v>
       </c>
       <c r="B47">
-        <v>491.39743079939041</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496.73814472410641</v>
+      </c>
+      <c r="C47">
+        <v>266.8088782156168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>116.85654879998644</v>
       </c>
       <c r="B48">
-        <v>193.8834353781341</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>227.38599264697143</v>
+      </c>
+      <c r="C48">
+        <v>208.33328381764542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>96.610009471013441</v>
       </c>
       <c r="B49">
-        <v>219.46388602012499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293.2815012720626</v>
+      </c>
+      <c r="C49">
+        <v>293.26627931349333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>219.203234994902</v>
       </c>
       <c r="B50">
-        <v>282.3047759465926</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>280.61422028040636</v>
+      </c>
+      <c r="C50">
+        <v>93.306105841689117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1141.3764412169749</v>
       </c>
       <c r="B51">
-        <v>292.61934798368856</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>574.42047123253212</v>
+      </c>
+      <c r="C51">
+        <v>622.91877974716544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>911.96474632557465</v>
       </c>
       <c r="B52">
-        <v>817.95342643088338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>948.62997209480568</v>
+      </c>
+      <c r="C52">
+        <v>154.10612402212416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1161.7045503766551</v>
       </c>
       <c r="B53">
-        <v>310.55731821755234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>884.98306110831754</v>
+      </c>
+      <c r="C53">
+        <v>314.42911399596017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>620.51550102575197</v>
       </c>
       <c r="B54">
-        <v>338.56097717737731</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>674.01211483331417</v>
+      </c>
+      <c r="C54">
+        <v>164.83291413140867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>398.55363567418635</v>
       </c>
       <c r="B55">
-        <v>265.44213665022494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263.58707952931627</v>
+      </c>
+      <c r="C55">
+        <v>319.14717195537565</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>438.53531698333876</v>
       </c>
       <c r="B56">
-        <v>562.94143445647842</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549.21579608119544</v>
+      </c>
+      <c r="C56">
+        <v>611.89803818566645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>70.538070206484363</v>
       </c>
       <c r="B57">
-        <v>322.80171814652959</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>555.14230698843096</v>
+      </c>
+      <c r="C57">
+        <v>697.28131814818482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>482.74224107088713</v>
       </c>
       <c r="B58">
-        <v>283.8416182049076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470.37451579446798</v>
+      </c>
+      <c r="C58">
+        <v>102.19451974490565</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>913.62789727553582</v>
       </c>
       <c r="B59">
-        <v>615.46641330767284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>912.93933995079999</v>
+      </c>
+      <c r="C59">
+        <v>146.17456684021619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>959.29193850869819</v>
       </c>
       <c r="B60">
-        <v>629.53211212673409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>771.9704907507429</v>
+      </c>
+      <c r="C60">
+        <v>1524.8355048912674</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>219.10304904642973</v>
       </c>
       <c r="B61">
-        <v>216.68457296964027</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410.48558778072345</v>
+      </c>
+      <c r="C61">
+        <v>266.42627166547368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>966.8067179264865</v>
       </c>
       <c r="B62">
-        <v>1072.9713257300605</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1024.481517374109</v>
+      </c>
+      <c r="C62">
+        <v>1097.3351157682091</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>95.485070213820279</v>
       </c>
       <c r="B63">
-        <v>234.85489211126094</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177.03247423251915</v>
+      </c>
+      <c r="C63">
+        <v>204.17355373494001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>274.78841221829947</v>
       </c>
       <c r="B64">
-        <v>405.1741188874347</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317.29606495005152</v>
+      </c>
+      <c r="C64">
+        <v>71.406004649470432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>644.01127554635013</v>
       </c>
       <c r="B65">
-        <v>748.17489685547469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>591.76545115214742</v>
+      </c>
+      <c r="C65">
+        <v>174.19006766874151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>174.6586019869639</v>
       </c>
       <c r="B66">
-        <v>312.88191463588134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162.92670215908493</v>
+      </c>
+      <c r="C66">
+        <v>1410.4421255720276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>216.79891520393514</v>
       </c>
       <c r="B67">
-        <v>485.95094060177234</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>756.93935747414525</v>
+      </c>
+      <c r="C67">
+        <v>877.5503249511388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1110.9457283880467</v>
       </c>
       <c r="B68">
-        <v>956.01668486794563</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1215.0115176013853</v>
+      </c>
+      <c r="C68">
+        <v>199.2530524756711</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1492.6199405511961</v>
       </c>
       <c r="B69">
-        <v>524.32395450242029</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1507.6929105520555</v>
+      </c>
+      <c r="C69">
+        <v>256.7205526742249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1890.9120388267945</v>
       </c>
       <c r="B70">
-        <v>1711.5504256771017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1950.7012350349335</v>
+      </c>
+      <c r="C70">
+        <v>130.5216517469724</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>853.10649416851595</v>
       </c>
       <c r="B71">
-        <v>691.82414182440368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>702.05083998857572</v>
+      </c>
+      <c r="C71">
+        <v>189.89841057748549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>871.31531248603699</v>
       </c>
       <c r="B72">
-        <v>200.58059104469172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266.35753374556293</v>
+      </c>
+      <c r="C72">
+        <v>1214.9171835614118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>543.86160172838299</v>
       </c>
       <c r="B73">
-        <v>318.58479222822854</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427.85914638343144</v>
+      </c>
+      <c r="C73">
+        <v>141.56000162169076</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>487.43002704431171</v>
       </c>
       <c r="B74">
-        <v>727.73649373405431</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525.42372775344847</v>
+      </c>
+      <c r="C74">
+        <v>513.32885917717851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>82.014455493190013</v>
       </c>
       <c r="B75">
-        <v>125.37231311005864</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251.17231525399092</v>
+      </c>
+      <c r="C75">
+        <v>174.26766686100726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>170.20277159719953</v>
       </c>
       <c r="B76">
-        <v>378.16958838111589</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358.96477235489402</v>
+      </c>
+      <c r="C76">
+        <v>3133.4910100801349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>492.96497021614726</v>
       </c>
       <c r="B77">
-        <v>414.38251049921786</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427.86514971980677</v>
+      </c>
+      <c r="C77">
+        <v>326.34595723576774</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>425.6087272938459</v>
       </c>
       <c r="B78">
-        <v>602.48040748625522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380.95043229633541</v>
+      </c>
+      <c r="C78">
+        <v>62.538231733713836</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>248.6452250565211</v>
       </c>
       <c r="B79">
-        <v>496.27133615416489</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433.94541896489358</v>
+      </c>
+      <c r="C79">
+        <v>215.34419305938758</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>355.25900359093885</v>
       </c>
       <c r="B80">
-        <v>1350.788155367756</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>376.90678239811575</v>
+      </c>
+      <c r="C80">
+        <v>148.10759792788139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>832.23407787587291</v>
       </c>
       <c r="B81">
-        <v>533.10801669503894</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1022.8198999550236</v>
+      </c>
+      <c r="C81">
+        <v>237.1970716521117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>613.02135332509067</v>
       </c>
       <c r="B82">
-        <v>852.38396662549212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>713.77122888193492</v>
+      </c>
+      <c r="C82">
+        <v>290.54356541604551</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>793.59424379353891</v>
       </c>
       <c r="B83">
-        <v>902.52731880972544</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1007.5172663704575</v>
+      </c>
+      <c r="C83">
+        <v>301.57905764423145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>710.53344410104148</v>
       </c>
       <c r="B84">
-        <v>675.45484230920761</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>628.77698429743873</v>
+      </c>
+      <c r="C84">
+        <v>193.16451403555695</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>252.36225346036369</v>
       </c>
       <c r="B85">
-        <v>272.4127300703932</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341.50308298468178</v>
+      </c>
+      <c r="C85">
+        <v>270.24717730993655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>226.68503205205619</v>
       </c>
       <c r="B86">
-        <v>294.80192751099145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171.33520120838045</v>
+      </c>
+      <c r="C86">
+        <v>182.08147886408557</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>877.69423423018395</v>
       </c>
       <c r="B87">
-        <v>2129.0898125771837</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>819.87369304412027</v>
+      </c>
+      <c r="C87">
+        <v>343.83210411460772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>907.70051030274351</v>
       </c>
       <c r="B88">
-        <v>784.61434412006565</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>913.37557216723803</v>
+      </c>
+      <c r="C88">
+        <v>175.31949616921159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>148.6795263813421</v>
       </c>
       <c r="B89">
-        <v>245.04693482762022</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>360.4063208134005</v>
+      </c>
+      <c r="C89">
+        <v>239.36658738821419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>204.2075065839667</v>
       </c>
       <c r="B90">
-        <v>2778.737907701443</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277.46680903301967</v>
+      </c>
+      <c r="C90">
+        <v>133.46054403198514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>231.08137654092857</v>
       </c>
       <c r="B91">
-        <v>203.03773498574944</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291.01880148543302</v>
+      </c>
+      <c r="C91">
+        <v>155.69294266501038</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>432.53307386136908</v>
       </c>
       <c r="B92">
-        <v>1089.9124172871079</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1100.0836108112831</v>
+      </c>
+      <c r="C92">
+        <v>731.62522819358128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>299.57398311391916</v>
       </c>
       <c r="B93">
-        <v>272.12062940323671</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293.49850322278678</v>
+      </c>
+      <c r="C93">
+        <v>192.47393666027247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>125.15591109749127</v>
       </c>
       <c r="B94">
-        <v>272.78762045605254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175.06045641906874</v>
+      </c>
+      <c r="C94">
+        <v>102.98566348687335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>758.28775911196828</v>
       </c>
       <c r="B95">
-        <v>608.00361457978704</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1029.4498032230176</v>
+      </c>
+      <c r="C95">
+        <v>510.44895143457808</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>231.90802669196157</v>
       </c>
       <c r="B96">
-        <v>87.890433556226682</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321.76215552215848</v>
+      </c>
+      <c r="C96">
+        <v>135.00860676513827</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>493.22446419408692</v>
       </c>
       <c r="B97">
-        <v>3024.5265879904164</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2920.8924535896617</v>
+      </c>
+      <c r="C97">
+        <v>3530.4449463558635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>330.29811963397697</v>
       </c>
       <c r="B98">
-        <v>604.60368453619014</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277.22007670783546</v>
+      </c>
+      <c r="C98">
+        <v>198.21701802832828</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>613.02135332509067</v>
       </c>
       <c r="B99">
-        <v>796.4917959557863</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>711.60245717533485</v>
+      </c>
+      <c r="C99">
+        <v>1298.879261282985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>467.6558823614705</v>
       </c>
       <c r="B100">
-        <v>140.86656052944977</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>309.37278344997043</v>
+      </c>
+      <c r="C100">
+        <v>343.78903506565052</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>244.47929443565869</v>
       </c>
       <c r="B101">
-        <v>123.5443928747863</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207.60620221659312</v>
+      </c>
+      <c r="C101">
+        <v>131.79827096607494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>227.30316188472258</v>
       </c>
       <c r="B102">
-        <v>164.5313294692719</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261.10833023753588</v>
+      </c>
+      <c r="C102">
+        <v>118.98292302792839</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>154.46076096124727</v>
       </c>
       <c r="B103">
-        <v>211.47135150656948</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235.59372537859412</v>
+      </c>
+      <c r="C103">
+        <v>154.99329354754173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>259.92968891789417</v>
       </c>
       <c r="B104">
-        <v>340.51068268092405</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>401.57544857809938</v>
+      </c>
+      <c r="C104">
+        <v>222.14116710289582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1101.7745460881738</v>
       </c>
       <c r="B105">
-        <v>1065.8392961452266</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1047.0985445576766</v>
+      </c>
+      <c r="C105">
+        <v>108.11455656968717</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>447.23631304909202</v>
       </c>
       <c r="B106">
-        <v>370.88153835114957</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351.78754144836313</v>
+      </c>
+      <c r="C106">
+        <v>223.50584287786717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>134.80559679077399</v>
       </c>
       <c r="B107">
-        <v>117.64415947585938</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210.61812504340185</v>
+      </c>
+      <c r="C107">
+        <v>238.0366947115117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4110.7177263040148</v>
       </c>
       <c r="B108">
-        <v>579.52123488690302</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3773.2927153709588</v>
+      </c>
+      <c r="C108">
+        <v>447.22651519146558</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1714.0514511346519</v>
       </c>
       <c r="B109">
-        <v>260.70684199894441</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1835.745847865127</v>
+      </c>
+      <c r="C109">
+        <v>131.00500938674057</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>166.51186932560054</v>
       </c>
       <c r="B110">
-        <v>200.4302934636593</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361.11360659983842</v>
+      </c>
+      <c r="C110">
+        <v>233.25220361396453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>346.46874896196937</v>
       </c>
       <c r="B111">
-        <v>384.30388816635349</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500.41751996886563</v>
+      </c>
+      <c r="C111">
+        <v>162.01451309643008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>279.19322541208697</v>
       </c>
       <c r="B112">
-        <v>126.93984837708712</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393.30703792476589</v>
+      </c>
+      <c r="C112">
+        <v>115.72436237568256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>92.655185096119197</v>
       </c>
       <c r="B113">
-        <v>167.73708401656324</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211.82459752716431</v>
+      </c>
+      <c r="C113">
+        <v>160.96214646353383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1243.7301094410927</v>
       </c>
       <c r="B114">
-        <v>267.22124565676239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>741.56569930965918</v>
+      </c>
+      <c r="C114">
+        <v>1109.0840537204624</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>128.39861682318212</v>
       </c>
       <c r="B115">
-        <v>198.61389429582059</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266.94076101386031</v>
+      </c>
+      <c r="C115">
+        <v>175.15190793052352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>615.12748516924933</v>
       </c>
       <c r="B116">
-        <v>565.00777618349059</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507.19357684235234</v>
+      </c>
+      <c r="C116">
+        <v>228.37402256893168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>217.37790360717244</v>
       </c>
       <c r="B117">
-        <v>316.28966018777635</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409.0706552144236</v>
+      </c>
+      <c r="C117">
+        <v>217.37532258882197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>585.2562776064384</v>
       </c>
       <c r="B118">
-        <v>256.48722684147657</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3480.7505551696686</v>
+      </c>
+      <c r="C118">
+        <v>3582.7113550230274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>494.19813453867545</v>
       </c>
       <c r="B119">
-        <v>205.10541098109218</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529.74106130976156</v>
+      </c>
+      <c r="C119">
+        <v>1153.6151911573709</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>557.80857565159681</v>
       </c>
       <c r="B120">
-        <v>557.34116489330552</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254.70304622897785</v>
+      </c>
+      <c r="C120">
+        <v>429.95602261411938</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>284.74820731485801</v>
       </c>
       <c r="B121">
-        <v>221.55597629688626</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373.84522168765966</v>
+      </c>
+      <c r="C121">
+        <v>138.57241508066582</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>417.37149105726616</v>
       </c>
       <c r="B122">
-        <v>498.49179197420727</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>586.2217329797702</v>
+      </c>
+      <c r="C122">
+        <v>326.00312847365399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1221.4770343498926</v>
       </c>
       <c r="B123">
-        <v>512.99009683632346</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1132.4814202771759</v>
+      </c>
+      <c r="C123">
+        <v>150.75524373841625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>170.20277159719953</v>
       </c>
       <c r="B124">
-        <v>291.63253536373321</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105.67496247241272</v>
+      </c>
+      <c r="C124">
+        <v>203.21982742995078</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>409.1938427377782</v>
       </c>
       <c r="B125">
-        <v>157.37973171027852</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161.94476914682443</v>
+      </c>
+      <c r="C125">
+        <v>376.59099807394836</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>354.48158557836894</v>
       </c>
       <c r="B126">
-        <v>158.78028002994901</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421.58830945710844</v>
+      </c>
+      <c r="C126">
+        <v>158.62745932634169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>294.42917680377349</v>
       </c>
       <c r="B127">
-        <v>138.16778838037862</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95.187286045297526</v>
+      </c>
+      <c r="C127">
+        <v>220.72633957638877</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1488.2834787445181</v>
       </c>
       <c r="B128">
-        <v>179.27962292022858</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1921.2154892446645</v>
+      </c>
+      <c r="C128">
+        <v>471.08049173962723</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>196.42866373397752</v>
       </c>
       <c r="B129">
-        <v>138.36108339594944</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>286.36430608581037</v>
+      </c>
+      <c r="C129">
+        <v>218.26612190971761</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>965.44777350280424</v>
       </c>
       <c r="B130">
-        <v>355.31023676387537</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>480.7438829301754</v>
+      </c>
+      <c r="C130">
+        <v>1326.3527051936144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2019.5240163623021</v>
       </c>
       <c r="B131">
-        <v>383.97093682006954</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1999.0450350889828</v>
+      </c>
+      <c r="C131">
+        <v>154.08392100456032</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>885.43052023459779</v>
       </c>
       <c r="B132">
-        <v>355.60889504415451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>961.47105206985952</v>
+      </c>
+      <c r="C132">
+        <v>128.55481169493177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>272.15584191699628</v>
       </c>
       <c r="B133">
-        <v>133.90934926546751</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301.00339610516181</v>
+      </c>
+      <c r="C133">
+        <v>136.9953793894822</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1049.1123613406298</v>
       </c>
       <c r="B134">
-        <v>1523.478311167152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1172.7388062152593</v>
+      </c>
+      <c r="C134">
+        <v>233.55482054617289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>458.65985952503576</v>
       </c>
       <c r="B135">
-        <v>515.21022867785291</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>629.31273242823181</v>
+      </c>
+      <c r="C135">
+        <v>175.57078100863649</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>340.28269669688916</v>
       </c>
       <c r="B136">
-        <v>1017.2093573436232</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>326.66505019163696</v>
+      </c>
+      <c r="C136">
+        <v>37.94389885964582</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>607.15730034684304</v>
       </c>
       <c r="B137">
-        <v>268.27115113541623</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357.27806643827893</v>
+      </c>
+      <c r="C137">
+        <v>307.02073607131905</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>493.38826207863497</v>
       </c>
       <c r="B138">
-        <v>339.45519121667394</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425.87426662506238</v>
+      </c>
+      <c r="C138">
+        <v>162.72963893018192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>822.27965927930279</v>
       </c>
       <c r="B139">
-        <v>659.45872836707827</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>855.49773821406666</v>
+      </c>
+      <c r="C139">
+        <v>115.23533736677626</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>889.84479831083956</v>
       </c>
       <c r="B140">
-        <v>286.94250377305247</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>620.77271848874682</v>
+      </c>
+      <c r="C140">
+        <v>1955.1555828384926</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>146.19897676827605</v>
       </c>
       <c r="B141">
-        <v>875.74281990424174</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>862.91710038417614</v>
+      </c>
+      <c r="C141">
+        <v>2435.1709927721363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2037.436266660731</v>
       </c>
       <c r="B142">
-        <v>356.45068355053661</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1954.9778179714419</v>
+      </c>
+      <c r="C142">
+        <v>183.2764703312688</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1008.3775781817005</v>
       </c>
       <c r="B143">
-        <v>1006.349567700173</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>882.91308535018584</v>
+      </c>
+      <c r="C143">
+        <v>247.05855391892823</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>670.38531102070056</v>
       </c>
       <c r="B144">
-        <v>463.20317313936818</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>474.47272545931582</v>
+      </c>
+      <c r="C144">
+        <v>232.63204552632649</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>252.36225346036369</v>
       </c>
       <c r="B145">
-        <v>3151.0518015278453</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3070.5715357797139</v>
+      </c>
+      <c r="C145">
+        <v>3179.7975500660809</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>493.22446419408692</v>
       </c>
       <c r="B146">
-        <v>2391.169727652149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>589.14982550288369</v>
+      </c>
+      <c r="C146">
+        <v>174.23859478138405</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>126.10513775019055</v>
       </c>
       <c r="B147">
-        <v>40.979245468547333</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>272.91391566269203</v>
+      </c>
+      <c r="C147">
+        <v>177.29702145345985</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>444.99126451570925</v>
       </c>
       <c r="B148">
-        <v>314.12021998420227</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>588.398326081856</v>
+      </c>
+      <c r="C148">
+        <v>187.47786114750554</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>331.64341545662057</v>
       </c>
       <c r="B149">
-        <v>311.84971645584778</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541.20860755646618</v>
+      </c>
+      <c r="C149">
+        <v>256.34365651627365</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>113.75144915699906</v>
       </c>
       <c r="B150">
-        <v>364.27001220020844</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482.38544484362819</v>
+      </c>
+      <c r="C150">
+        <v>1548.2533802115602</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1243.7301094410927</v>
       </c>
       <c r="B151">
-        <v>1060.793546992757</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1302.5370439082988</v>
+      </c>
+      <c r="C151">
+        <v>192.21427911906872</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>113.75144915699906</v>
       </c>
       <c r="B152">
-        <v>167.96758369954543</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182.94605578190928</v>
+      </c>
+      <c r="C152">
+        <v>107.75488662033779</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>699.71470698658857</v>
       </c>
       <c r="B153">
-        <v>451.11958247479834</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393.82645250950532</v>
+      </c>
+      <c r="C153">
+        <v>438.9480351762798</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1871.1714829270304</v>
       </c>
       <c r="B154">
-        <v>336.46717768726876</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2013.7212206995164</v>
+      </c>
+      <c r="C154">
+        <v>208.29608275697805</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>107.85702204017184</v>
       </c>
       <c r="B155">
-        <v>207.67466293268831</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98.35588371659432</v>
+      </c>
+      <c r="C155">
+        <v>161.00919629470312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>219.83442984816642</v>
       </c>
       <c r="B156">
-        <v>2131.8686543393692</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304.44674179067619</v>
+      </c>
+      <c r="C156">
+        <v>93.227554964380744</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>494.19813453867545</v>
       </c>
       <c r="B157">
-        <v>127.33788667864681</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>264.16951138414368</v>
+      </c>
+      <c r="C157">
+        <v>640.68684954130003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>256.7265167121094</v>
       </c>
       <c r="B158">
-        <v>2044.6634452629289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380.78240618254114</v>
+      </c>
+      <c r="C158">
+        <v>1381.9689086983865</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>716.6394828641686</v>
       </c>
       <c r="B159">
-        <v>517.33465327431588</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>483.40062199043041</v>
+      </c>
+      <c r="C159">
+        <v>284.65333330933652</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>441.97945130367776</v>
       </c>
       <c r="B160">
-        <v>474.77750982295578</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350.39333476137779</v>
+      </c>
+      <c r="C160">
+        <v>119.56653083520281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>171.03176933276208</v>
       </c>
       <c r="B161">
-        <v>183.009558127887</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>230.70351058366396</v>
+      </c>
+      <c r="C161">
+        <v>236.91433085433047</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1451.3842806288026</v>
       </c>
       <c r="B162">
-        <v>1392.8815961566504</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1223.6516013383618</v>
+      </c>
+      <c r="C162">
+        <v>330.96967894257955</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2058.3675468191655</v>
       </c>
       <c r="B163">
-        <v>474.58035326178265</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2053.99003475278</v>
+      </c>
+      <c r="C163">
+        <v>69.5573509599255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3087.2823318569385</v>
       </c>
       <c r="B164">
-        <v>4814.863051137404</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5173.553586480346</v>
+      </c>
+      <c r="C164">
+        <v>3021.8760949627194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>844.77518957394761</v>
       </c>
       <c r="B165">
-        <v>372.09907160007293</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>560.95112887342611</v>
+      </c>
+      <c r="C165">
+        <v>1109.0110319679663</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1252.5282417860024</v>
       </c>
       <c r="B166">
-        <v>1259.1748524122515</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1191.0302178826942</v>
+      </c>
+      <c r="C166">
+        <v>171.83413631957495</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>546.94493574833871</v>
       </c>
       <c r="B167">
-        <v>307.89581413579015</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492.06965592837668</v>
+      </c>
+      <c r="C167">
+        <v>391.81060873048602</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>259.92439374696789</v>
       </c>
       <c r="B168">
-        <v>331.91274141098665</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383.94300376279409</v>
+      </c>
+      <c r="C168">
+        <v>184.96299784737431</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>146.19897676827605</v>
       </c>
       <c r="B169">
-        <v>188.43341120921292</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314.13568169862253</v>
+      </c>
+      <c r="C169">
+        <v>1806.6681457701511</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>256.7265167121094</v>
       </c>
       <c r="B170">
-        <v>3360.3711654931603</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144.60567747498601</v>
+      </c>
+      <c r="C170">
+        <v>180.85350799827867</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>822.27965927930279</v>
       </c>
       <c r="B171">
-        <v>1618.6400249443118</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1501.0396032567785</v>
+      </c>
+      <c r="C171">
+        <v>1804.615016222843</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>554.13215825680118</v>
       </c>
       <c r="B172">
-        <v>138.53525523670601</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>423.51137427630994</v>
+      </c>
+      <c r="C172">
+        <v>174.62218910224678</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>885.43052023459779</v>
       </c>
       <c r="B173">
-        <v>7457.682285153036</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7297.8367264748122</v>
+      </c>
+      <c r="C173">
+        <v>7582.9586229320012</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1583.1632621767587</v>
       </c>
       <c r="B174">
-        <v>1752.6095598914872</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1578.5962932728303</v>
+      </c>
+      <c r="C174">
+        <v>73.342776343550469</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>339.20203681483355</v>
       </c>
       <c r="B175">
-        <v>3091.3320964941872</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3089.5707126754887</v>
+      </c>
+      <c r="C175">
+        <v>3068.5758095757997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1552.0913883484031</v>
       </c>
       <c r="B176">
-        <v>1467.814577933073</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1535.7967089644769</v>
+      </c>
+      <c r="C176">
+        <v>108.67951901632939</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1186.4778457566581</v>
       </c>
       <c r="B177">
-        <v>134.09982305768671</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205.50082884474745</v>
+      </c>
+      <c r="C177">
+        <v>1336.5475540588714</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>438.76373047558576</v>
       </c>
       <c r="B178">
-        <v>737.3417992780503</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>861.36744134791263</v>
+      </c>
+      <c r="C178">
+        <v>500.84873386674315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>862.00835132158943</v>
       </c>
       <c r="B179">
-        <v>936.84907103607816</v>
+        <v>962.27426362469532</v>
+      </c>
+      <c r="C179">
+        <v>183.55348924660481</v>
       </c>
     </row>
   </sheetData>
